--- a/formatexcel/semuaabsensi.xlsx
+++ b/formatexcel/semuaabsensi.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="13">
   <si>
     <t>TANGGAL_ABSEN</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>01215001</t>
+  </si>
+  <si>
+    <t>01212001</t>
+  </si>
+  <si>
+    <t>0411001</t>
   </si>
 </sst>
 </file>
@@ -393,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2731,6 +2737,926 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
+    <row r="117" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F140" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E151" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C153" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D153" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F154" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C155" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C161" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/formatexcel/semuaabsensi.xlsx
+++ b/formatexcel/semuaabsensi.xlsx
@@ -401,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
